--- a/biology/Médecine/La_Vérité_sur_Jack/La_Vérité_sur_Jack.xlsx
+++ b/biology/Médecine/La_Vérité_sur_Jack/La_Vérité_sur_Jack.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_V%C3%A9rit%C3%A9_sur_Jack</t>
+          <t>La_Vérité_sur_Jack</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Vérité sur Jack (You Don't Know Jack) est un téléfilm américain réalisé par Barry Levinson et diffusé aux États-Unis en avril 2010 sur HBO. En France, le téléfilm a été diffusé en septembre 2010 sur Orange Cinémax, et en décembre 2011 sur Ciné+ Premier.
 Le film est basé sur la vie de Jack Kevorkian, surnommé Dr Death.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_V%C3%A9rit%C3%A9_sur_Jack</t>
+          <t>La_Vérité_sur_Jack</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début des années 1990 aux États-Unis, l'euthanasie active n'a pas d'existence légale. Le médecin Jack Kevorkian commence à pratiquer le suicide assisté sur des patients souhaitant mourir : il fabrique un appareil qui permet à un patient de déclencher lui-même une injection létale. Il est poursuivi en justice plusieurs fois, mais gagne à chaque fois.
 Souhaitant pousser le débat plus loin, il finit par injecter lui-même les substances létales à un patient. Son geste est médiatisé par un reportage de l'émission télévisée 60 Minutes. Un nouveau procès s'engage, qu'il perd cette fois. Il est condamné à plusieurs années de prison. Il est libéré au bout de huit ans.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_V%C3%A9rit%C3%A9_sur_Jack</t>
+          <t>La_Vérité_sur_Jack</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : You Don't Know Jack
@@ -567,7 +583,7 @@
 Format : couleur et noir et blanc — 1.78:1 — 35 mm
 Genre : drame, biographie
 Durée : 134 minutes
-Dates de diffusion à la télévision[1] :
+Dates de diffusion à la télévision :
 États-Unis : 24 avril 2010
 France : 3 septembre 2010</t>
         </is>
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_V%C3%A9rit%C3%A9_sur_Jack</t>
+          <t>La_Vérité_sur_Jack</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Al Pacino (VF : José Luccioni) : Dr Jack Kevorkian
 Brenda Vaccaro (VF : Annie Le Youdec) : Margo Janus
@@ -620,7 +638,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>La_V%C3%A9rit%C3%A9_sur_Jack</t>
+          <t>La_Vérité_sur_Jack</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,6 +657,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -646,7 +666,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>La_V%C3%A9rit%C3%A9_sur_Jack</t>
+          <t>La_Vérité_sur_Jack</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,6 +685,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
